--- a/biology/Botanique/Convolvulus_betonicifolius/Convolvulus_betonicifolius.xlsx
+++ b/biology/Botanique/Convolvulus_betonicifolius/Convolvulus_betonicifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus betonicifolius, le Liseron à feuilles de bétoine ou Liseron hirsute, est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liseron à feuilles de bétoine se développe dans les cultures, les haies et les talus.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de l'est de la région méditerranéenne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de l'est de la région méditerranéenne.
 Introduite en France, on la trouve principalement dans les départements du Sud-Est.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace de 40 à 150 cm, rampante ou grimpante,  aux tiges épaisses. Ses feuilles sont densément velues, en cœur ou fer de lance. Les fleurs, sont roses, blanches ou crème avec une corolle longue de 20 à 35 mm.
 </t>
